--- a/Costs.xlsx
+++ b/Costs.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kobekow Laptop\Documents\U of U class folders\Comp. Eng\Senior_Project\ECESeniorProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\ECESeniorProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A2B6D8-9D47-48A4-9FA5-E1BA3B8B5D1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3144" yWindow="120" windowWidth="17280" windowHeight="9024" xr2:uid="{8AD26974-3CE0-4B40-A0AA-3AEF5F303AFD}"/>
+    <workbookView xWindow="3150" yWindow="120" windowWidth="17280" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Arduino Mega 2560</t>
   </si>
@@ -40,17 +39,61 @@
   </si>
   <si>
     <t>Sparkfun Thing Plus</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Locktite</t>
+  </si>
+  <si>
+    <t>Screws, bits, pins, wire</t>
+  </si>
+  <si>
+    <t>Acrylic (sheet, rods)</t>
+  </si>
+  <si>
+    <t>Original driver</t>
+  </si>
+  <si>
+    <t>Power supply</t>
+  </si>
+  <si>
+    <t>Part:</t>
+  </si>
+  <si>
+    <t>Cost:</t>
+  </si>
+  <si>
+    <t>Purchaser:</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Nate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,9 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,49 +440,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C216AAC-DB79-4557-B478-3398351E1A4A}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="1">
         <v>41.62</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>61.83</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>29.14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <f>SUM(B1:B3)</f>
-        <v>132.58999999999997</v>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>212.36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10.33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10.32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>28.08</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44.68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>14.87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <f>SUM(B2:B10)</f>
+        <v>445.94999999999993</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>